--- a/社内システムPH１管理/99_個人/yaocx/WebService一覧.xlsx
+++ b/社内システムPH１管理/99_個人/yaocx/WebService一覧.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaochenxu/github/ph1/社内システムPH１管理/99_個人/yaocx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majiusi/Desktop/ph1/社内システムPH１管理/99_個人/yaocx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="540" windowWidth="24560" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="394">
   <si>
     <t>input</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1571,6 +1571,20 @@
   </si>
   <si>
     <t>上記以外の場合、正常終了する</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬</t>
+    <rPh sb="0" eb="1">
+      <t>ま</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>コメントを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ついk</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1665,6 +1679,24 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1827,9 +1859,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1875,6 +1919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,9 +1936,14 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1907,22 +1960,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="14">
     <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1932,6 +1988,376 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>230909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>166767</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7235152" y="11519798"/>
+          <a:ext cx="4566868" cy="2398889"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79260"/>
+            <a:gd name="adj2" fmla="val 12703"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这块取得的 不应该是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>default work start time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>应该从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>attendances</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表取，而非</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dispatches</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这块取得的是：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>项目 默认的 出勤 腿勤时间 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>／</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户点击按钮的时间</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按照之前的设计 应该是客户点击按钮的时间。 （</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MAS0000070</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>社员基本信息 和 勤务状况 合并的必要性 需要再讨论</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>218081</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>141110</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>192426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5926667" y="2360405"/>
+          <a:ext cx="3591918" cy="2065354"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 70459"/>
+            <a:gd name="adj2" fmla="val 24468"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据类型：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38484</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7235152" y="9236364"/>
+          <a:ext cx="3591918" cy="2065354"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -143470"/>
+            <a:gd name="adj2" fmla="val 87822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>地理位置信息 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IOS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>端取得 取得后的内容 应该</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>到数据库中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>出勤地点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>腿勤地点    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>追加？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2200,2323 +2626,2519 @@
   <dimension ref="B2:BA42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G4"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="29" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
     </row>
     <row r="3" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35">
         <v>42645</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
     </row>
     <row r="4" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34">
+      <c r="B4" s="29">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30">
+        <v>42648</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
     </row>
     <row r="5" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34">
+      <c r="B5" s="29">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="29"/>
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="29"/>
     </row>
     <row r="6" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34">
+      <c r="B6" s="29">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="29"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="29"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="29"/>
     </row>
     <row r="7" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34">
+      <c r="B7" s="29">
         <v>5</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
     </row>
     <row r="8" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34">
+      <c r="B8" s="29">
         <v>6</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
     </row>
     <row r="9" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34">
+      <c r="B9" s="29">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
     </row>
     <row r="10" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34">
+      <c r="B10" s="29">
         <v>8</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="29"/>
     </row>
     <row r="11" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34">
+      <c r="B11" s="29">
         <v>9</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
     </row>
     <row r="12" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34">
+      <c r="B12" s="29">
         <v>10</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
     </row>
     <row r="13" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34">
+      <c r="B13" s="29">
         <v>11</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34">
+      <c r="B14" s="29">
         <v>12</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34">
+      <c r="B15" s="29">
         <v>13</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34">
+      <c r="B16" s="29">
         <v>14</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
     </row>
     <row r="17" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34">
+      <c r="B17" s="29">
         <v>15</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="34"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
     </row>
     <row r="18" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34">
+      <c r="B18" s="29">
         <v>16</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
     </row>
     <row r="19" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34">
+      <c r="B19" s="29">
         <v>17</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
     </row>
     <row r="20" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34">
+      <c r="B20" s="29">
         <v>18</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
     </row>
     <row r="21" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34">
+      <c r="B21" s="29">
         <v>19</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
     </row>
     <row r="22" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="34">
+      <c r="B22" s="29">
         <v>20</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="34"/>
-      <c r="BA22" s="34"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34">
+      <c r="B23" s="29">
         <v>21</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="34"/>
-      <c r="BA23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34">
+      <c r="B24" s="29">
         <v>22</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="34"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
     </row>
     <row r="25" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="34">
+      <c r="B25" s="29">
         <v>23</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="34"/>
-      <c r="AZ25" s="34"/>
-      <c r="BA25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
     </row>
     <row r="26" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34">
+      <c r="B26" s="29">
         <v>24</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="34"/>
-      <c r="BA26" s="34"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
+      <c r="AS26" s="29"/>
+      <c r="AT26" s="29"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
     </row>
     <row r="27" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34">
+      <c r="B27" s="29">
         <v>25</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="29"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
     </row>
     <row r="28" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34">
+      <c r="B28" s="29">
         <v>26</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="29"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
     </row>
     <row r="29" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34">
+      <c r="B29" s="29">
         <v>27</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
-      <c r="AQ29" s="34"/>
-      <c r="AR29" s="34"/>
-      <c r="AS29" s="34"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="34"/>
-      <c r="AV29" s="34"/>
-      <c r="AW29" s="34"/>
-      <c r="AX29" s="34"/>
-      <c r="AY29" s="34"/>
-      <c r="AZ29" s="34"/>
-      <c r="BA29" s="34"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="29"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
     </row>
     <row r="30" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="34">
+      <c r="B30" s="29">
         <v>28</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="34"/>
-      <c r="AM30" s="34"/>
-      <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="34"/>
-      <c r="AS30" s="34"/>
-      <c r="AT30" s="34"/>
-      <c r="AU30" s="34"/>
-      <c r="AV30" s="34"/>
-      <c r="AW30" s="34"/>
-      <c r="AX30" s="34"/>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="34"/>
-      <c r="BA30" s="34"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="29"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
     </row>
     <row r="31" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="34">
+      <c r="B31" s="29">
         <v>29</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="34"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="34"/>
-      <c r="AX31" s="34"/>
-      <c r="AY31" s="34"/>
-      <c r="AZ31" s="34"/>
-      <c r="BA31" s="34"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
+      <c r="AS31" s="29"/>
+      <c r="AT31" s="29"/>
+      <c r="AU31" s="29"/>
+      <c r="AV31" s="29"/>
+      <c r="AW31" s="29"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="29"/>
+      <c r="AZ31" s="29"/>
+      <c r="BA31" s="29"/>
     </row>
     <row r="32" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="34">
+      <c r="B32" s="29">
         <v>30</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34"/>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="34"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
-      <c r="BA32" s="34"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="29"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="29"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
     </row>
     <row r="33" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="34">
+      <c r="B33" s="29">
         <v>31</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="34"/>
-      <c r="AQ33" s="34"/>
-      <c r="AR33" s="34"/>
-      <c r="AS33" s="34"/>
-      <c r="AT33" s="34"/>
-      <c r="AU33" s="34"/>
-      <c r="AV33" s="34"/>
-      <c r="AW33" s="34"/>
-      <c r="AX33" s="34"/>
-      <c r="AY33" s="34"/>
-      <c r="AZ33" s="34"/>
-      <c r="BA33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="29"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="29"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="29"/>
+      <c r="AZ33" s="29"/>
+      <c r="BA33" s="29"/>
     </row>
     <row r="34" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="34">
+      <c r="B34" s="29">
         <v>32</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="29"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="29"/>
     </row>
     <row r="35" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="34">
+      <c r="B35" s="29">
         <v>33</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="34"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="34"/>
-      <c r="AS35" s="34"/>
-      <c r="AT35" s="34"/>
-      <c r="AU35" s="34"/>
-      <c r="AV35" s="34"/>
-      <c r="AW35" s="34"/>
-      <c r="AX35" s="34"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="34"/>
-      <c r="BA35" s="34"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
     </row>
     <row r="36" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="34">
+      <c r="B36" s="29">
         <v>34</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
-      <c r="AQ36" s="34"/>
-      <c r="AR36" s="34"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="34"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="34"/>
-      <c r="BA36" s="34"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29"/>
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
     </row>
     <row r="37" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="34">
+      <c r="B37" s="29">
         <v>35</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="34"/>
-      <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
-      <c r="BA37" s="34"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="29"/>
+      <c r="AT37" s="29"/>
+      <c r="AU37" s="29"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
     </row>
     <row r="38" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="34">
+      <c r="B38" s="29">
         <v>36</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="34"/>
-      <c r="AQ38" s="34"/>
-      <c r="AR38" s="34"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="34"/>
-      <c r="AU38" s="34"/>
-      <c r="AV38" s="34"/>
-      <c r="AW38" s="34"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="34"/>
-      <c r="BA38" s="34"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="29"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="29"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
     </row>
     <row r="39" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="34">
+      <c r="B39" s="29">
         <v>37</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="34"/>
-      <c r="BA39" s="34"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="29"/>
+      <c r="AU39" s="29"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="29"/>
     </row>
     <row r="40" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="34">
+      <c r="B40" s="29">
         <v>38</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
-      <c r="BA40" s="34"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="29"/>
+      <c r="AN40" s="29"/>
+      <c r="AO40" s="29"/>
+      <c r="AP40" s="29"/>
+      <c r="AQ40" s="29"/>
+      <c r="AR40" s="29"/>
+      <c r="AS40" s="29"/>
+      <c r="AT40" s="29"/>
+      <c r="AU40" s="29"/>
+      <c r="AV40" s="29"/>
+      <c r="AW40" s="29"/>
+      <c r="AX40" s="29"/>
+      <c r="AY40" s="29"/>
+      <c r="AZ40" s="29"/>
+      <c r="BA40" s="29"/>
     </row>
     <row r="41" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="34">
+      <c r="B41" s="29">
         <v>39</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="34"/>
-      <c r="AR41" s="34"/>
-      <c r="AS41" s="34"/>
-      <c r="AT41" s="34"/>
-      <c r="AU41" s="34"/>
-      <c r="AV41" s="34"/>
-      <c r="AW41" s="34"/>
-      <c r="AX41" s="34"/>
-      <c r="AY41" s="34"/>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="34"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="29"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="29"/>
+      <c r="AS41" s="29"/>
+      <c r="AT41" s="29"/>
+      <c r="AU41" s="29"/>
+      <c r="AV41" s="29"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="29"/>
+      <c r="AZ41" s="29"/>
+      <c r="BA41" s="29"/>
     </row>
     <row r="42" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="34">
+      <c r="B42" s="29">
         <v>40</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="34"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="34"/>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="34"/>
-      <c r="AQ42" s="34"/>
-      <c r="AR42" s="34"/>
-      <c r="AS42" s="34"/>
-      <c r="AT42" s="34"/>
-      <c r="AU42" s="34"/>
-      <c r="AV42" s="34"/>
-      <c r="AW42" s="34"/>
-      <c r="AX42" s="34"/>
-      <c r="AY42" s="34"/>
-      <c r="AZ42" s="34"/>
-      <c r="BA42" s="34"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="29"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="29"/>
+      <c r="AO42" s="29"/>
+      <c r="AP42" s="29"/>
+      <c r="AQ42" s="29"/>
+      <c r="AR42" s="29"/>
+      <c r="AS42" s="29"/>
+      <c r="AT42" s="29"/>
+      <c r="AU42" s="29"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="29"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="29"/>
+      <c r="AZ42" s="29"/>
+      <c r="BA42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:BA2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:U3"/>
+    <mergeCell ref="V3:BA3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="V4:BA4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:U5"/>
+    <mergeCell ref="V5:BA5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="V6:BA6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:U7"/>
+    <mergeCell ref="V7:BA7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:U8"/>
+    <mergeCell ref="V8:BA8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:U9"/>
+    <mergeCell ref="V9:BA9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:U10"/>
+    <mergeCell ref="V10:BA10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:U11"/>
+    <mergeCell ref="V11:BA11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="V12:BA12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:U13"/>
+    <mergeCell ref="V13:BA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="V14:BA14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:U15"/>
+    <mergeCell ref="V15:BA15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:U16"/>
+    <mergeCell ref="V16:BA16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:U17"/>
+    <mergeCell ref="V17:BA17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:U18"/>
+    <mergeCell ref="V18:BA18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:U19"/>
+    <mergeCell ref="V19:BA19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:U20"/>
+    <mergeCell ref="V20:BA20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:U21"/>
+    <mergeCell ref="V21:BA21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="V22:BA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:U23"/>
+    <mergeCell ref="V23:BA23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="V24:BA24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:U25"/>
+    <mergeCell ref="V25:BA25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:U26"/>
+    <mergeCell ref="V26:BA26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:U27"/>
+    <mergeCell ref="V27:BA27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:U28"/>
+    <mergeCell ref="V28:BA28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:U29"/>
+    <mergeCell ref="V29:BA29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:U30"/>
+    <mergeCell ref="V30:BA30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:U31"/>
+    <mergeCell ref="V31:BA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:U32"/>
+    <mergeCell ref="V32:BA32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:BA33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:BA34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:BA35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:BA36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:BA37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:BA38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:BA39"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="H42:K42"/>
@@ -4532,196 +5154,6 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:U41"/>
     <mergeCell ref="V41:BA41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:BA38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="V39:BA39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:BA36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:BA37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:BA34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:BA35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:U32"/>
-    <mergeCell ref="V32:BA32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:BA33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:U30"/>
-    <mergeCell ref="V30:BA30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:U31"/>
-    <mergeCell ref="V31:BA31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:U28"/>
-    <mergeCell ref="V28:BA28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:U29"/>
-    <mergeCell ref="V29:BA29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:U26"/>
-    <mergeCell ref="V26:BA26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:U27"/>
-    <mergeCell ref="V27:BA27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:U24"/>
-    <mergeCell ref="V24:BA24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:U25"/>
-    <mergeCell ref="V25:BA25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="V22:BA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:U23"/>
-    <mergeCell ref="V23:BA23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:U20"/>
-    <mergeCell ref="V20:BA20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:U21"/>
-    <mergeCell ref="V21:BA21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:U18"/>
-    <mergeCell ref="V18:BA18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:U19"/>
-    <mergeCell ref="V19:BA19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:U16"/>
-    <mergeCell ref="V16:BA16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:U17"/>
-    <mergeCell ref="V17:BA17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:U14"/>
-    <mergeCell ref="V14:BA14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:U15"/>
-    <mergeCell ref="V15:BA15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:U12"/>
-    <mergeCell ref="V12:BA12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:U13"/>
-    <mergeCell ref="V13:BA13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:U10"/>
-    <mergeCell ref="V10:BA10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:U11"/>
-    <mergeCell ref="V11:BA11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:U8"/>
-    <mergeCell ref="V8:BA8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:U9"/>
-    <mergeCell ref="V9:BA9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:U6"/>
-    <mergeCell ref="V6:BA6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:U7"/>
-    <mergeCell ref="V7:BA7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="V4:BA4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:U5"/>
-    <mergeCell ref="V5:BA5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="V2:BA2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="V3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4733,7 +5165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="99" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4743,60 +5175,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -5477,60 +5909,60 @@
       <c r="BA14" s="3"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -5910,60 +6342,60 @@
       <c r="BA22" s="11"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -6905,60 +7337,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -7523,60 +7955,60 @@
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -7954,60 +8386,60 @@
       <c r="BA20" s="11"/>
     </row>
     <row r="21" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
     </row>
     <row r="22" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -8676,68 +9108,68 @@
   <dimension ref="B2:BC18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:55" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
     </row>
     <row r="3" spans="2:55" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -8858,42 +9290,42 @@
       <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="38" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="38" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="40"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="43"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -8910,42 +9342,42 @@
       <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="41" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="41" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="43"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="38"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -8962,42 +9394,42 @@
       <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="41" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="41" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="43"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="38"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
@@ -9014,14 +9446,14 @@
       <c r="E8" s="17">
         <v>3</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="18" t="s">
         <v>243</v>
       </c>
@@ -9039,17 +9471,17 @@
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="20"/>
-      <c r="AA8" s="41" t="s">
+      <c r="AA8" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="43"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="38"/>
       <c r="AM8" t="s">
         <v>246</v>
       </c>
@@ -9069,14 +9501,14 @@
       <c r="E9" s="17">
         <v>4</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="18" t="s">
         <v>245</v>
       </c>
@@ -9094,17 +9526,17 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="41" t="s">
+      <c r="AA9" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="43"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="38"/>
       <c r="AM9" t="s">
         <v>247</v>
       </c>
@@ -9349,20 +9781,20 @@
       <c r="L14" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="43"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="26" t="s">
         <v>369</v>
       </c>
@@ -9388,36 +9820,36 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="44"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="43"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="38"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
@@ -9432,36 +9864,36 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="44"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="43"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="38"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
@@ -9585,12 +10017,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AA15:AI15"/>
-    <mergeCell ref="AA16:AI16"/>
-    <mergeCell ref="AA6:AI6"/>
-    <mergeCell ref="AA7:AI7"/>
-    <mergeCell ref="AA8:AI8"/>
-    <mergeCell ref="AA9:AI9"/>
     <mergeCell ref="B2:BC2"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:Z5"/>
@@ -9606,6 +10032,12 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:Z15"/>
     <mergeCell ref="AA5:AI5"/>
+    <mergeCell ref="AA15:AI15"/>
+    <mergeCell ref="AA16:AI16"/>
+    <mergeCell ref="AA6:AI6"/>
+    <mergeCell ref="AA7:AI7"/>
+    <mergeCell ref="AA8:AI8"/>
+    <mergeCell ref="AA9:AI9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9618,7 +10050,7 @@
   <dimension ref="B2:BA54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9627,60 +10059,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -10308,60 +10740,60 @@
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
-      <c r="BA14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -11362,60 +11794,60 @@
       <c r="BA33" s="11"/>
     </row>
     <row r="34" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="40"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="40"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
@@ -12535,7 +12967,7 @@
   <dimension ref="B2:BA49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12544,60 +12976,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -13160,60 +13592,60 @@
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -14324,60 +14756,60 @@
       <c r="BA33" s="11"/>
     </row>
     <row r="34" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="40"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="40"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="40"/>
     </row>
     <row r="35" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
@@ -15218,10 +15650,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B2:BA90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AH62" sqref="AH62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15230,60 +15665,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -16206,60 +16641,60 @@
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="40"/>
     </row>
     <row r="20" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -18166,60 +18601,60 @@
       <c r="BA54" s="11"/>
     </row>
     <row r="55" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37"/>
-      <c r="AK55" s="37"/>
-      <c r="AL55" s="37"/>
-      <c r="AM55" s="37"/>
-      <c r="AN55" s="37"/>
-      <c r="AO55" s="37"/>
-      <c r="AP55" s="37"/>
-      <c r="AQ55" s="37"/>
-      <c r="AR55" s="37"/>
-      <c r="AS55" s="37"/>
-      <c r="AT55" s="37"/>
-      <c r="AU55" s="37"/>
-      <c r="AV55" s="37"/>
-      <c r="AW55" s="37"/>
-      <c r="AX55" s="37"/>
-      <c r="AY55" s="37"/>
-      <c r="AZ55" s="37"/>
-      <c r="BA55" s="37"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="40"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="40"/>
+      <c r="AG55" s="40"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="40"/>
+      <c r="AK55" s="40"/>
+      <c r="AL55" s="40"/>
+      <c r="AM55" s="40"/>
+      <c r="AN55" s="40"/>
+      <c r="AO55" s="40"/>
+      <c r="AP55" s="40"/>
+      <c r="AQ55" s="40"/>
+      <c r="AR55" s="40"/>
+      <c r="AS55" s="40"/>
+      <c r="AT55" s="40"/>
+      <c r="AU55" s="40"/>
+      <c r="AV55" s="40"/>
+      <c r="AW55" s="40"/>
+      <c r="AX55" s="40"/>
+      <c r="AY55" s="40"/>
+      <c r="AZ55" s="40"/>
+      <c r="BA55" s="40"/>
     </row>
     <row r="56" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
@@ -20155,15 +20590,19 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B2:BA84"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20172,60 +20611,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -21533,60 +21972,60 @@
       <c r="BA25" s="3"/>
     </row>
     <row r="26" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="37"/>
-      <c r="BA26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
     </row>
     <row r="27" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
@@ -23581,60 +24020,60 @@
       <c r="BA64" s="11"/>
     </row>
     <row r="65" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="37"/>
-      <c r="AE65" s="37"/>
-      <c r="AF65" s="37"/>
-      <c r="AG65" s="37"/>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="37"/>
-      <c r="AJ65" s="37"/>
-      <c r="AK65" s="37"/>
-      <c r="AL65" s="37"/>
-      <c r="AM65" s="37"/>
-      <c r="AN65" s="37"/>
-      <c r="AO65" s="37"/>
-      <c r="AP65" s="37"/>
-      <c r="AQ65" s="37"/>
-      <c r="AR65" s="37"/>
-      <c r="AS65" s="37"/>
-      <c r="AT65" s="37"/>
-      <c r="AU65" s="37"/>
-      <c r="AV65" s="37"/>
-      <c r="AW65" s="37"/>
-      <c r="AX65" s="37"/>
-      <c r="AY65" s="37"/>
-      <c r="AZ65" s="37"/>
-      <c r="BA65" s="37"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
+      <c r="AB65" s="40"/>
+      <c r="AC65" s="40"/>
+      <c r="AD65" s="40"/>
+      <c r="AE65" s="40"/>
+      <c r="AF65" s="40"/>
+      <c r="AG65" s="40"/>
+      <c r="AH65" s="40"/>
+      <c r="AI65" s="40"/>
+      <c r="AJ65" s="40"/>
+      <c r="AK65" s="40"/>
+      <c r="AL65" s="40"/>
+      <c r="AM65" s="40"/>
+      <c r="AN65" s="40"/>
+      <c r="AO65" s="40"/>
+      <c r="AP65" s="40"/>
+      <c r="AQ65" s="40"/>
+      <c r="AR65" s="40"/>
+      <c r="AS65" s="40"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="40"/>
+      <c r="AV65" s="40"/>
+      <c r="AW65" s="40"/>
+      <c r="AX65" s="40"/>
+      <c r="AY65" s="40"/>
+      <c r="AZ65" s="40"/>
+      <c r="BA65" s="40"/>
     </row>
     <row r="66" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
@@ -24676,15 +25115,19 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B2:BA50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24693,60 +25136,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -25309,60 +25752,60 @@
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -25854,60 +26297,60 @@
       <c r="BA22" s="11"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -27407,6 +27850,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27424,60 +27868,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -28040,60 +28484,60 @@
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -28473,60 +28917,60 @@
       <c r="BA20" s="11"/>
     </row>
     <row r="21" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37"/>
-      <c r="BA21" s="37"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
     </row>
     <row r="22" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -29417,8 +29861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:BA15"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29427,60 +29871,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -30153,60 +30597,60 @@
       <c r="BA14" s="3"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -30586,60 +31030,60 @@
       <c r="BA22" s="11"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
